--- a/loterie_romande.xlsx
+++ b/loterie_romande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>loose</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>new_col</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,17 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -498,6 +508,11 @@
           <t>4.50</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -517,7 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -542,6 +562,11 @@
           <t>1.34</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -551,17 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -586,6 +616,11 @@
           <t>6.50</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -600,12 +635,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -630,6 +670,11 @@
           <t>4.95</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -639,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -650,6 +695,11 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -674,55 +724,70 @@
           <t>2.90</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>National Bank Egypt - Smouha</t>
+          <t>Roumanie - Pays-Bas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Roumanie - Pays-Bas</t>
+          <t>ENPPI - Arab Contractors</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENPPI - Arab Contractors</t>
+          <t>Autriche - Turquie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -732,1564 +797,1919 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pyramids - ZED</t>
+          <t>Goias - America MG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Autriche - Turquie</t>
+          <t>Novorizontino - Mirassol</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Goias - America MG</t>
+          <t>Brésil - Colombie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Novorizontino - Mirassol</t>
+          <t>Costa Rica - Paraguay</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brésil - Colombie</t>
+          <t>Yokohama Mar. - Sagan Tosu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Costa Rica - Paraguay</t>
+          <t>Future FC - Baladiyyat AL Mehalla</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Yokohama Mar. - Sagan Tosu</t>
+          <t>Ceramica Cleopatra - Ismaily</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Future FC - Baladiyyat AL Mehalla</t>
+          <t>Pharco - Zamalek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra - Ismaily</t>
+          <t>Sandefjord - Tromsoe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pharco - Zamalek</t>
+          <t>Cuiaba - Botafogo RJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sandefjord - Tromsoe</t>
+          <t>Columbus Crew - Nashville SC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cuiaba - Botafogo RJ</t>
+          <t>Criciuma - Cruzeiro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Columbus Crew - Nashville SC</t>
+          <t>Vasco de Gama - Fortaleza</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Criciuma - Cruzeiro</t>
+          <t>Charlotte - Inter Miami</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vasco de Gama - Fortaleza</t>
+          <t>DC United - Cincinnati</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Charlotte - Inter Miami</t>
+          <t>New York City - Montreal</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DC United - Cincinnati</t>
+          <t>Toronto FC - Orlando City</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>New York City - Montreal</t>
+          <t>New England - Atlanta Utd</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Toronto FC - Orlando City</t>
+          <t>Atl. Paranaense - Sao Paulo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>New England - Atlanta Utd</t>
+          <t>Atletico Mineiro - Flamengo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Atl. Paranaense - Sao Paulo</t>
+          <t>RB Bragantino - Atletico GO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Atletico Mineiro - Flamengo</t>
+          <t>Chicago Fire - Philadelphia Union</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RB Bragantino - Atletico GO</t>
+          <t>Minnesota Utd - Whitecaps</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chicago Fire - Philadelphia Union</t>
+          <t>St. Louis City - SJ Earthquakes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Minnesota Utd - Whitecaps</t>
+          <t>Real Salt Lake - Dynamo Houston</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>St. Louis City - SJ Earthquakes</t>
+          <t>FCSB - CS Corvinul 1921 Hunedoara</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Real Salt Lake - Dynamo Houston</t>
+          <t>Bahia - Juventude</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FCSB - CS Corvinul 1921 Hunedoara</t>
+          <t>Gremio - Palmeiras</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bahia - Juventude</t>
+          <t>Corinthians - Vitoria</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gremio - Palmeiras</t>
+          <t>Fluminense - Internacional</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Corinthians - Vitoria</t>
+          <t>FC Dallas - Portland Timbers</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4.55</t>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fluminense - Internacional</t>
+          <t>Argentine - Equateur</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FC Dallas - Portland Timbers</t>
+          <t>Colorado Rapids - Sporting KC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentine - Equateur</t>
+          <t>LA Galaxy - Los Angeles FC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Colorado Rapids - Sporting KC</t>
+          <t>Hiroshima - Kobe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LA Galaxy - Los Angeles FC</t>
+          <t>Incheon - Sangju Sangmu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hiroshima - Kobe</t>
+          <t>Suwon FC - Ulsan Hyundai</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Incheon - Sangju Sangmu</t>
+          <t>Henan Songshan Longmen - Shanghai Port</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Suwon FC - Ulsan Hyundai</t>
+          <t>Espagne - Allemagne</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen - Shanghai Port</t>
+          <t>Puebla - Santos Laguna</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Espagne - Allemagne</t>
+          <t>Queretaro - Club Tijuana</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Puebla - Santos Laguna</t>
+          <t>Venezuela - Canada</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Queretaro - Club Tijuana</t>
+          <t>Juarez - Atlas</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Venezuela - Canada</t>
+          <t>Kashima - Sapporo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Juarez - Atlas</t>
+          <t>Machida Zelvia - Nagoya</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kashima - Sapporo</t>
+          <t>Tokyo Verdy - Cerezo Osaka</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Machida Zelvia - Nagoya</t>
+          <t>Albirex Niigata - Sagan Tosu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tokyo Verdy - Cerezo Osaka</t>
+          <t>Iwata - Kawasaki</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Albirex Niigata - Sagan Tosu</t>
+          <t>Urawa - Shonan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>3.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Iwata - Kawasaki</t>
+          <t>Gamba Osaka - Yokohama Mar.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Urawa - Shonan</t>
+          <t>Kashiwa - Tokyo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Yokohama Mar.</t>
+          <t>Jeju United - Seoul</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kashiwa - Tokyo</t>
+          <t>Daegu - Pohang</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jeju United - Seoul</t>
+          <t>Tianjin Jinmen Tiger - Changchun Yatai</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Daegu - Pohang</t>
+          <t>Shanghai Shenhua - Shandong Taishan</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger - Changchun Yatai</t>
+          <t>Cangzhou Mighty Lions - Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua - Shandong Taishan</t>
+          <t>Elfsborg - Brommapojkarna</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cangzhou Mighty Lions - Sichuan Jiuniu</t>
+          <t>Mjallby - Sirius</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Elfsborg - Brommapojkarna</t>
+          <t>Cerro Largo - Liverpool M.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mjallby - Sirius</t>
+          <t>Akranes - Kopavogur</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cerro Largo - Liverpool M.</t>
+          <t>IF Vestri - Breidablik</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Akranes - Kopavogur</t>
+          <t>KR Reykjavik - Stjarnan</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IF Vestri - Breidablik</t>
+          <t>Tigres UANL - Necaxa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KR Reykjavik - Stjarnan</t>
+          <t>Boston River - Cerro CA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tigres UANL - Necaxa</t>
+          <t>Angleterre - Suisse</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Boston River - Cerro CA</t>
+          <t>Valur Reykja. - Fylkir Reykja.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Angleterre - Suisse</t>
+          <t>Penarol - Maldonado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Valur Reykja. - Fylkir Reykja.</t>
+          <t>Nacional - Rampla Juniors</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Penarol - Maldonado</t>
+          <t>Atl. San Luis - Club America</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nacional - Rampla Juniors</t>
+          <t>Flamengo - Cuiaba</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Atl. San Luis - Club America</t>
+          <t>Sao Paulo - RB Bragantino</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2299,520 +2719,640 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Flamengo - Cuiaba</t>
+          <t>Guadalajara - Toluca</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sao Paulo - RB Bragantino</t>
+          <t>Cruz Azul - Mazatlan</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Guadalajara - Toluca</t>
+          <t>Avispa Fukuoka - Kyoto Sanga</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cruz Azul - Mazatlan</t>
+          <t>Daejeon Citizen - Jeonbuk</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka - Kyoto Sanga</t>
+          <t>Gangwon - Gwangju</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Daejeon Citizen - Jeonbuk</t>
+          <t>Nantong Zhiyun - Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gangwon - Gwangju</t>
+          <t>Beijing Guoan - Wuhan Three Towns</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun - Chengdu Rongcheng</t>
+          <t>Qingdao Manatee - Qingdao Youth Island</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Beijing Guoan - Wuhan Three Towns</t>
+          <t>AIK Fotboll - Kalmar</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Qingdao Manatee - Qingdao Youth Island</t>
+          <t>Varnamo - IFK Goteborg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AIK Fotboll - Kalmar</t>
+          <t>Zhejiang Professional - Meizhou Hakka</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Varnamo - IFK Goteborg</t>
+          <t>Bodoe/Glimt - Brann</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Zhejiang Professional - Meizhou Hakka</t>
+          <t>Fenix - River Plate (URU)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bodoe/Glimt - Brann</t>
+          <t>Coritiba - Paysandu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Fenix - River Plate (URU)</t>
+          <t>Gais - Hammarby</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Coritiba - Paysandu</t>
+          <t>Malmö FF - Halmstads</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Gais - Hammarby</t>
+          <t>Haugesund - Sarpsborg 08</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Malmö FF - Halmstads</t>
+          <t>Kfum Oslo - Viking</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Haugesund - Sarpsborg 08</t>
+          <t>Molde - Lilleström</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kfum Oslo - Viking</t>
+          <t>Progreso - Racing Mdeo.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Molde - Lilleström</t>
+          <t>Rosenborg - Odd</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Progreso - Racing Mdeo.</t>
+          <t>Pumas UNAM - Leon</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rosenborg - Odd</t>
+          <t>Cruzeiro - Corinthians</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pumas UNAM - Leon</t>
+          <t>Fortaleza - Fluminense</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2822,156 +3362,191 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cruzeiro - Corinthians</t>
+          <t>Juventude - Gremio</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Fortaleza - Fluminense</t>
+          <t>Ituano - Botafogo SP</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Juventude - Gremio</t>
+          <t>Defensor - Wanderers</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ituano - Botafogo SP</t>
+          <t>Botafogo RJ - Atletico Mineiro</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Botafogo RJ - Atletico Mineiro</t>
+          <t>Atletico GO - Atl. Paranaense</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Defensor - Wanderers</t>
+          <t>Palmeiras - Bahia</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Atletico GO - Atl. Paranaense</t>
+          <t>Vitoria - Criciuma</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2981,129 +3556,159 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Palmeiras - Bahia</t>
+          <t>Guarani - Sport Recife</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Vitoria - Criciuma</t>
+          <t>Miramar Misiones - Danubio</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Guarani - Sport Recife</t>
+          <t>Internacional - Vasco de Gama</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Internacional - Vasco de Gama</t>
+          <t>Pachuca - Monterrey</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Miramar Misiones - Danubio</t>
+          <t>Norrkoping - Djurgardens</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Pachuca - Monterrey</t>
+          <t>Västeras SK - Hacken</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3113,305 +3718,375 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Norrkoping - Djurgardens</t>
+          <t>Kristiansund - Fredrikstad</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Västeras SK - Hacken</t>
+          <t>Internacional - Juventude</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kristiansund - Fredrikstad</t>
+          <t>Rép.Tchèque - Espagne</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Internacional - Juventude</t>
+          <t>Atl. Paranaense - Ypiranga FC RS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rép.Tchèque - Espagne</t>
+          <t>Gremio - Operario</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Atl. Paranaense - Ypiranga FC RS</t>
+          <t>Huachipato - Racing Mdeo.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Gremio - Operario</t>
+          <t>Barcelone SC - RB Bragantino</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Huachipato - Racing Mdeo.</t>
+          <t>Rosario - Internacional</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Barcelone SC - RB Bragantino</t>
+          <t>Club Libertad - U. Catolica</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Rosario - Internacional</t>
+          <t>Ind. del Valle - Boca Juniors</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Club Libertad - U. Catolica</t>
+          <t>Palestino - Cuiaba</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ind. del Valle - Boca Juniors</t>
+          <t>Cerro Porteno - Atl. Paranaense</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Palestino - Cuiaba</t>
+          <t>LDU Quito - Always Ready</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Atl. Paranaense</t>
+          <t>Aarhus - Midtjylland</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3421,327 +4096,402 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LDU Quito - Always Ready</t>
+          <t>Jagiellonia - Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Aarhus - Midtjylland</t>
+          <t>Nordsjælland - Aalborg</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Jagiellonia - Puszcza Niepolomice</t>
+          <t>Slask Wroclaw - Lechia Gdansk</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Nordsjælland - Aalborg</t>
+          <t>GKS Katowice - Radomiak Radom</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Slask Wroclaw - Lechia Gdansk</t>
+          <t>Pogon Szczecin - Korona Kielce</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GKS Katowice - Radomiak Radom</t>
+          <t>Legia Varsovie - Zaglebie Lubin</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pogon Szczecin - Korona Kielce</t>
+          <t>Silkeborg - SonderjyskE</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Legia Varsovie - Zaglebie Lubin</t>
+          <t>Vejle - Randers</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Silkeborg - SonderjyskE</t>
+          <t>Viborg - Brondby</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vejle - Randers</t>
+          <t>Lyngby - FC Copenhague</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Viborg - Brondby</t>
+          <t>Hearts - Rangers</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lyngby - FC Copenhague</t>
+          <t>Motherwell - Ross County</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Hearts - Rangers</t>
+          <t>Vitoria - Cuiaba</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Motherwell - Ross County</t>
+          <t>Dundee Utd - FC Dundee</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Vitoria - Cuiaba</t>
+          <t>St. Mirren - Hibernian</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3751,41 +4501,51 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Dundee Utd - FC Dundee</t>
+          <t>Celtic - Kilmarnock</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>St. Mirren - Hibernian</t>
+          <t>St. Johnstone - Aberdeen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3795,476 +4555,586 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Celtic - Kilmarnock</t>
+          <t>Manchester City - Manchester Utd</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>St. Johnstone - Aberdeen</t>
+          <t>Colo Colo - Junior</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Manchester City - Manchester Utd</t>
+          <t>Gremio - Fluminense</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Colo Colo - Junior</t>
+          <t>San Lorenzo - Atletico Mineiro</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Gremio - Fluminense</t>
+          <t>Real Madrid - Atalanta</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>San Lorenzo - Atletico Mineiro</t>
+          <t>Penarol - The Strongest</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Real Madrid - Atalanta</t>
+          <t>Botafogo RJ - Palmeiras</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Penarol - The Strongest</t>
+          <t>Talleres - River Plate</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Botafogo RJ - Palmeiras</t>
+          <t>Athletic Bilbao - Getafe</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Talleres - River Plate</t>
+          <t>Real Betis - Girona</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Athletic Bilbao - Getafe</t>
+          <t>Nacional - Sao Paulo</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Real Betis - Girona</t>
+          <t>Flamengo - Bolivar</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Nacional - Sao Paulo</t>
+          <t>Wehen - Mayence</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Flamengo - Bolivar</t>
+          <t>Würzburger Kickers - Hoffenheim</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wehen - Mayence</t>
+          <t>Celta Vigo - Alaves</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Würzburger Kickers - Hoffenheim</t>
+          <t>Ulm - Bayern Munich</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Celta Vigo - Alaves</t>
+          <t>Manchester Utd - Fulham</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ulm - Bayern Munich</t>
+          <t>Las Palmas - FC Séville</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Manchester Utd - Fulham</t>
+          <t>Aue - Monchengladbach</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Las Palmas - FC Séville</t>
+          <t>TSV Schott Mainz - Greuther Furth</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Aue - Monchengladbach</t>
+          <t>Ipswich Town - Liverpool</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TSV Schott Mainz - Greuther Furth</t>
+          <t>FC 08 Villingen - Heidenheim</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4274,354 +5144,434 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ipswich Town - Liverpool</t>
+          <t>Greifswalder FC - Union Berlin</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FC 08 Villingen - Heidenheim</t>
+          <t>Ingolstadt - Kaiserslautern</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Greifswalder FC - Union Berlin</t>
+          <t>Osnabruck - Fribourg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ingolstadt - Kaiserslautern</t>
+          <t>RW Essen - RB Leipzig</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Osnabruck - Fribourg</t>
+          <t>VfR Aalen - Schalke 04</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RW Essen - RB Leipzig</t>
+          <t>Arsenal - Wolves</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>10.50</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>1.15</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>VfR Aalen - Schalke 04</t>
+          <t>Everton - Brighton</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Arsenal - Wolves</t>
+          <t>Newcastle - Southampton</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Everton - Brighton</t>
+          <t>Nottingham - Bournemouth</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Newcastle - Southampton</t>
+          <t>Bielefeld - Hanovre</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nottingham - Bournemouth</t>
+          <t>FC Phonix Lubeck - Dortmund</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Bielefeld - Hanovre</t>
+          <t>TSV Alemannia Aachen - Kiel</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FC Phonix Lubeck - Dortmund</t>
+          <t>West Ham - Aston Villa</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>TSV Alemannia Aachen - Kiel</t>
+          <t>Osasuna - Leganes</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>West Ham - Aston Villa</t>
+          <t>Bayer Leverkusen - Stuttgart</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Osasuna - Leganes</t>
+          <t>Valence - FC Barcelone</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4631,168 +5581,208 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen - Stuttgart</t>
+          <t>Saarbrucken - Nuremberg</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Valence - FC Barcelone</t>
+          <t>Viktoria Berlin - Augsbourg</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Saarbrucken - Nuremberg</t>
+          <t>Brentford - Crystal Palace</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Viktoria Berlin - Augsbourg</t>
+          <t>Bremer SV 1906 - Paderborn</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Brentford - Crystal Palace</t>
+          <t>FC Teutonia Ottensen 1905 - Darmstadt</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Bremer SV 1906 - Paderborn</t>
+          <t>Hansa Rostock - Hertha Berlin</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FC Teutonia Ottensen 1905 - Darmstadt</t>
+          <t>Ratisbonne - Bochum</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Hansa Rostock - Hertha Berlin</t>
+          <t>Sandhausen - FC Cologne</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4802,540 +5792,611 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>2.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ratisbonne - Bochum</t>
+          <t>Chelsea - Manchester City</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sandhausen - FC Cologne</t>
+          <t>Dresden - Düsseldorf</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Chelsea - Manchester City</t>
+          <t>Lotte - Karlsruher</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Dresden - Düsseldorf</t>
+          <t>Meppen - Hambourg</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Lotte - Karlsruher</t>
+          <t>Real Sociedad - Rayo Vallecano</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Meppen - Hambourg</t>
+          <t>Angers - Lens</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Real Sociedad - Rayo Vallecano</t>
+          <t>Auxerre - Nice</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Angers - Lens</t>
+          <t>Brest - Marseille</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Auxerre - Nice</t>
+          <t>Le Havre - Paris SG</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Brest - Marseille</t>
+          <t>Monaco - Saint-Etienne</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Le Havre - Paris SG</t>
+          <t>Montpellier - Strasbourg</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Monaco - Saint-Etienne</t>
+          <t>Reims - Lille</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Montpellier - Strasbourg</t>
+          <t>Rennes - Lyon</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Reims - Lille</t>
+          <t>Toulouse - Nantes</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Rennes - Lyon</t>
+          <t>Majorque - Real Madrid</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Toulouse - Nantes</t>
+          <t>Cottbus - Werder Brême</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Majorque - Real Madrid</t>
+          <t>Offenbacher FC Kickers 1901 - Magdeburg</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Cottbus - Werder Brême</t>
+          <t>TUS Koblenz 1911 - Wolfsburg</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Offenbacher FC Kickers 1901 - Magdeburg</t>
+          <t>Valladolid - Espanyol</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>TUS Koblenz 1911 - Wolfsburg</t>
+          <t>Braunschweig - Francfort</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Valladolid - Espanyol</t>
+          <t>Leicester - Tottenham</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Braunschweig - Francfort</t>
+          <t>Villarreal - Atletico Madrid</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Leicester - Tottenham</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Villarreal - Atletico Madrid</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
           <t>2.25</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
